--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,24 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aca</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EXTRA HEAVY aca???aca</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,19 +451,1225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>samonovo123</t>
+          <t>147177-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ŠTAP VENGEANCE TE GT 4-500</t>
+          <t>GAMAKATSU UDICE A1 G-CARP POP UP 1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1DM6 56945</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAŠINICA QUICK 6 LC 6000FD,7BB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1PMC 73139</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MAŠINICA PROLOGIC COMMANDR BF 6000S 5BB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1SG8 74739</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAŠINICA SG8 1000FD 11BB / 5,2:1+REZ.ŠPUNA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13770</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24386-680</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ŠTAP GAMAKATSU AREATRY 2.04M , 4-14GR</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15390</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>45-3457</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KARABINJER FALCON</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2DSM 56119</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ŠTAP MADCAT WHITE INLINE MULTIPLIER LFC 1,85M 30LB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2PSC 72761</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ŠTAP COMMANDER 12'3,6M 3,25LBS 50MM AR</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4702-503</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PEŠKIR FREESTYLE MICROFIBRE 30*30CM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4DEL 60490</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZETT EXECUTOR DRESSED GOLD#1 3GR</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4DEL 60491</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZETT EXECUTOR DRESSED SILVER#1 3GR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4DEL 60493</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZETT EXECUTOR DRESSED REFLEX RED#1 3GR</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4DELD 5120401</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZETT SINGLEHOOK SPIN SINK SILVER#1 3GR</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4DELD 5120601</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZET SINGLEHOOK SPIN SINKING COPER#1,3G</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4DELD 5130603</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZET SINGLEHOOK SPIN SINK BROWN TROUT#1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4DELD 5130703</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VARALICA EFFZETT SINGLEHOOK SPIN SINK RAINBOW#1 3G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4DS 45524</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SIGNALIZATOR DAM BLASTER CAMO VT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4DS 52152</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SIGNALIZATOR MADCAT SMART ALARM / GREEN</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4DV 8152002</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VIRBLA MADCAT 140KG-310LBS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4SGVS 76916</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 7,5CM 5GR SMELT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4SGVS 76917</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 7,5CM 5GR GREEN PEARL YELLOW</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4SGVS 76918</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 7,5CM 5GR FIRECRACKER</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4SGVS 76919</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 7,5CM 5GR MOTOROIL UV</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4SGVS 76922</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 9cm 9g.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>18</v>
+      </c>
+      <c r="D25" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4SGVS 76923</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 9CM 9GR GREEN PEARL YELLOW</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4SGVS 76924</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 9CM 9GR FIRECRACKER</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>18</v>
+      </c>
+      <c r="D27" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4SGVS 76925</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 9CM 9GR MOTOROIL UV</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4SGVS 76954</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 9CM 9GR/CLEAR WATER MIX 5 KO</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4SGVS 76955</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VARALICA SHED GOBSTER 9CM 9GR/DARK WATER MIX 5 KOM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4SGVV 63722</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VARALICA 3D ROACH PULSETAIL 10CM 17,5G SINKING/KOI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4SGVV 71866</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VARALICA VOBLER PATKA 3D SUICIDE DUCK 10,5CM 28G</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4SGVV 74019</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 5,5CM 7G SINK/BLACK</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4SGVV 74020</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 5,5CM 7G SINK/AYU G</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4SGVV 74023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT 505CM 10,5G</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4SGVV 74024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 6,5cm 10,6g.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4SGVV 74025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 6,5cm 10,5g. GREENS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4SGVV 74028</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 6,5cm 10,5g. BLACKR</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4SGVV 74029</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 7,5cm 13g. SILVER</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4SGVV 74030</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 7,5cm 13g. GREENSIL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4SGVV 74033</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VARALICA 3D STICKLEBAIT PENCIL 7,5cm 13g. BLACKRED</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>5RTS 61473</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>STRUNA RT HYPER 4-BRAID 110M  GREY 0,13MM</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5RTS 61475</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>STRUNA RT HYPER 4-BRAID 110M  GREY 0,17MM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5RTS 62118</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>STRUNA RT HYPER 4-BRAID 300M YELLOW 0,25MM</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5RTS 62119</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>STRUNA RT HYPER 4-BRAID 300M YELLOW 0,28MM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5RTS 62121</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>STRUNA RT HYPER 4-BRAID 300M YELLOW 0,38MM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6DS 62110</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>STOLICA SA RANCEM DAM CAMOICONIC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6JK RH-324B</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KUTIJA ZA MAMCE SET JAXON 16x11x7CM 324B</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6PB 54366</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BANK STICK PROLOGIC 110-180cm</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6PC 57229</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ČIČAK+ZAŠTITNIK ZA ŠTAPOVE 3m DO 3,9m 2 KOM</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6PS 54351</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>STO PROLOGIC PODEŠAVAJUĆI ZA SITAN PRIBOR</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6PS 54440</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>STO PROLOGIC PODEŠAVAJUĆI+4 KUTIJE+TORBA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6PS 65048</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>STOLICA PROLOGIC AVENGER CAMO CHAIR 140kg.</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7670</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6PT 65065</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RANAC PROLOGIC AVENGER 38L.</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6SGT 74239</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RANAC SG SPECIALIST + 3 KUTIJE 23L.</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6SGT 74254</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TORBA TWIN SG ZA 2 ŠTAPA 1,2m.</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6SR 61457</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RANAC SCIERRA KAITUM XP 15L.</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7PM 64543</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAJICA PROLOGIC L. POLO WORLD TEAM</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7PM 64544</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAJICA PROLOGIC XL. POLO WORLD TEAM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7PM 64545</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAJICA PROLOGIC XXL. POLO WORLD TEAM</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7SGD 73683</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DRES SAVAGE GEAR TOURNAMENT DUGI RUKAVI, M /BLACK</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7SGK 73717</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KAČKET SG SUN VISIOR / BLACK INK</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7SGR 49403</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RUKAVICE SAVAGE GEAR WINTER THERMO, XL /BLACK GREY</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>80-0615</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3D FISHING EYES</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>80-0660</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3D FISHING EYES</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>10</v>
+      </c>
+      <c r="D65" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>80-6457</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TWINGO 5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>8985-302</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ZAŠTITNIK ZA TELESKOPSKE VRHOVE NA NADUVAVANJE 2 K</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>9WK</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>KAMERA WATER WOLF 2.0</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>IK</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>INDICATOR RING (KARIKA)</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>18</v>
+      </c>
+      <c r="D69" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
